--- a/excel/finished/能介/四空压站运行记录表.xlsx
+++ b/excel/finished/能介/四空压站运行记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS4_ACM_Main" sheetId="1" r:id="rId1"/>
@@ -936,14 +936,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,10 +1042,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1063,19 +1147,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1087,58 +1163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,41 +1179,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1219,7 +1213,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,55 +1351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,31 +1363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,79 +1387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,17 +1850,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,28 +1898,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1944,16 +1927,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1962,40 +1956,40 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2004,113 +1998,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2319,13 +2313,13 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2397,13 +2391,13 @@
     <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="常规 3 2 4" xfId="55"/>
-    <cellStyle name="常规 14" xfId="56"/>
+    <cellStyle name="常规 14" xfId="55"/>
+    <cellStyle name="常规 3 2 4" xfId="56"/>
     <cellStyle name="常规 2" xfId="57"/>
     <cellStyle name="常规 3" xfId="58"/>
     <cellStyle name="常规 3 2 3" xfId="59"/>
-    <cellStyle name="常规 3 5" xfId="60"/>
-    <cellStyle name="常规 3 3 2" xfId="61"/>
+    <cellStyle name="常规 3 3 2" xfId="60"/>
+    <cellStyle name="常规 3 5" xfId="61"/>
     <cellStyle name="常规 3 6" xfId="62"/>
     <cellStyle name="常规 4" xfId="63"/>
     <cellStyle name="常规 5" xfId="64"/>
@@ -2708,8 +2702,8 @@
   <sheetPr/>
   <dimension ref="A1:DD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:G33"/>
+    <sheetView tabSelected="1" topLeftCell="CD2" workbookViewId="0">
+      <selection activeCell="CN4" sqref="CN$1:CT$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26666666666667" defaultRowHeight="13.5"/>
@@ -4257,33 +4251,33 @@
         <f>IF(_acsReport_day_each!CK2="","",_acsReport_day_each!CK2)</f>
         <v/>
       </c>
-      <c r="CN8" s="60">
-        <f>_acsReport_day_each!CL2:CP2</f>
-        <v>0</v>
-      </c>
-      <c r="CO8" s="29" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ2:CU2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP8" s="29">
-        <f>IF(_acsReport_day_each!CV2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="29">
-        <f>IF(_acsReport_day_each!CW2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR8" s="29">
-        <f>IF(_acsReport_day_each!CX2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS8" s="29">
-        <f>IF(_acsReport_day_each!CY2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT8" s="76">
-        <f>IF(_acsReport_day_each!CZ2&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN8" s="60" t="str">
+        <f>IF(_acsReport_day_each!CL2="","",_acsReport_day_each!CL2:CP2)</f>
+        <v/>
+      </c>
+      <c r="CO8" s="29" t="str">
+        <f>IF(_acsReport_day_each!CQ2="","",AVERAGE(_acsReport_day_each!CQ2:CU2))</f>
+        <v/>
+      </c>
+      <c r="CP8" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV2="","",IF(_acsReport_day_each!CV2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ8" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW2="","",IF(_acsReport_day_each!CW2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR8" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX2="","",IF(_acsReport_day_each!CX2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS8" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY2="","",IF(_acsReport_day_each!CY2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT8" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ2="","",IF(_acsReport_day_each!CZ2&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU8" s="25" t="str">
         <f>IF(_acsReport_day_each!CL2="","",_acsReport_day_each!CL2)</f>
@@ -4686,33 +4680,33 @@
         <f>IF(_acsReport_day_each!CK3="","",_acsReport_day_each!CK3)</f>
         <v/>
       </c>
-      <c r="CN9" s="61">
-        <f>_acsReport_day_each!CL3:CP3</f>
-        <v>0</v>
-      </c>
-      <c r="CO9" s="29" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ3:CU3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP9" s="29">
-        <f>IF(_acsReport_day_each!CV3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="29">
-        <f>IF(_acsReport_day_each!CW3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR9" s="29">
-        <f>IF(_acsReport_day_each!CX3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS9" s="29">
-        <f>IF(_acsReport_day_each!CY3&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT9" s="76">
-        <f>IF(_acsReport_day_each!CZ3&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN9" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL3="","",_acsReport_day_each!CL3:CP3)</f>
+        <v/>
+      </c>
+      <c r="CO9" s="29" t="str">
+        <f>IF(_acsReport_day_each!CQ3="","",AVERAGE(_acsReport_day_each!CQ3:CU3))</f>
+        <v/>
+      </c>
+      <c r="CP9" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV3="","",IF(_acsReport_day_each!CV3&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ9" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW3="","",IF(_acsReport_day_each!CW3&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR9" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX3="","",IF(_acsReport_day_each!CX3&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS9" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY3="","",IF(_acsReport_day_each!CY3&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT9" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ3="","",IF(_acsReport_day_each!CZ3&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU9" s="29" t="str">
         <f>IF(_acsReport_day_each!CL3="","",_acsReport_day_each!CL3)</f>
@@ -5115,33 +5109,33 @@
         <f>IF(_acsReport_day_each!CK4="","",_acsReport_day_each!CK4)</f>
         <v/>
       </c>
-      <c r="CN10" s="61">
-        <f>_acsReport_day_each!CL4:CP4</f>
-        <v>0</v>
-      </c>
-      <c r="CO10" s="29" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ4:CU4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP10" s="29">
-        <f>IF(_acsReport_day_each!CV4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ10" s="29">
-        <f>IF(_acsReport_day_each!CW4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR10" s="29">
-        <f>IF(_acsReport_day_each!CX4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS10" s="29">
-        <f>IF(_acsReport_day_each!CY4&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT10" s="76">
-        <f>IF(_acsReport_day_each!CZ4&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN10" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL4="","",_acsReport_day_each!CL4:CP4)</f>
+        <v/>
+      </c>
+      <c r="CO10" s="29" t="str">
+        <f>IF(_acsReport_day_each!CQ4="","",AVERAGE(_acsReport_day_each!CQ4:CU4))</f>
+        <v/>
+      </c>
+      <c r="CP10" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV4="","",IF(_acsReport_day_each!CV4&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ10" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW4="","",IF(_acsReport_day_each!CW4&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR10" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX4="","",IF(_acsReport_day_each!CX4&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS10" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY4="","",IF(_acsReport_day_each!CY4&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT10" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ4="","",IF(_acsReport_day_each!CZ4&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU10" s="29" t="str">
         <f>IF(_acsReport_day_each!CL4="","",_acsReport_day_each!CL4)</f>
@@ -5544,33 +5538,33 @@
         <f>IF(_acsReport_day_each!CK5="","",_acsReport_day_each!CK5)</f>
         <v/>
       </c>
-      <c r="CN11" s="61">
-        <f>_acsReport_day_each!CL5:CP5</f>
-        <v>0</v>
-      </c>
-      <c r="CO11" s="29" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ5:CU5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP11" s="29">
-        <f>IF(_acsReport_day_each!CV5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="29">
-        <f>IF(_acsReport_day_each!CW5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR11" s="29">
-        <f>IF(_acsReport_day_each!CX5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS11" s="29">
-        <f>IF(_acsReport_day_each!CY5&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT11" s="76">
-        <f>IF(_acsReport_day_each!CZ5&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN11" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL5="","",_acsReport_day_each!CL5:CP5)</f>
+        <v/>
+      </c>
+      <c r="CO11" s="29" t="str">
+        <f>IF(_acsReport_day_each!CQ5="","",AVERAGE(_acsReport_day_each!CQ5:CU5))</f>
+        <v/>
+      </c>
+      <c r="CP11" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV5="","",IF(_acsReport_day_each!CV5&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ11" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW5="","",IF(_acsReport_day_each!CW5&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR11" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX5="","",IF(_acsReport_day_each!CX5&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS11" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY5="","",IF(_acsReport_day_each!CY5&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT11" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ5="","",IF(_acsReport_day_each!CZ5&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU11" s="29" t="str">
         <f>IF(_acsReport_day_each!CL5="","",_acsReport_day_each!CL5)</f>
@@ -5973,33 +5967,33 @@
         <f>IF(_acsReport_day_each!CK6="","",_acsReport_day_each!CK6)</f>
         <v/>
       </c>
-      <c r="CN12" s="61">
-        <f>_acsReport_day_each!CL6:CP6</f>
-        <v>0</v>
-      </c>
-      <c r="CO12" s="29" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ6:CU6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP12" s="29">
-        <f>IF(_acsReport_day_each!CV6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ12" s="29">
-        <f>IF(_acsReport_day_each!CW6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR12" s="29">
-        <f>IF(_acsReport_day_each!CX6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS12" s="29">
-        <f>IF(_acsReport_day_each!CY6&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT12" s="76">
-        <f>IF(_acsReport_day_each!CZ6&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN12" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL6="","",_acsReport_day_each!CL6:CP6)</f>
+        <v/>
+      </c>
+      <c r="CO12" s="29" t="str">
+        <f>IF(_acsReport_day_each!CQ6="","",AVERAGE(_acsReport_day_each!CQ6:CU6))</f>
+        <v/>
+      </c>
+      <c r="CP12" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV6="","",IF(_acsReport_day_each!CV6&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ12" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW6="","",IF(_acsReport_day_each!CW6&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR12" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX6="","",IF(_acsReport_day_each!CX6&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS12" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY6="","",IF(_acsReport_day_each!CY6&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT12" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ6="","",IF(_acsReport_day_each!CZ6&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU12" s="29" t="str">
         <f>IF(_acsReport_day_each!CL6="","",_acsReport_day_each!CL6)</f>
@@ -6402,33 +6396,33 @@
         <f>IF(_acsReport_day_each!CK7="","",_acsReport_day_each!CK7)</f>
         <v/>
       </c>
-      <c r="CN13" s="61">
-        <f>_acsReport_day_each!CL7:CP7</f>
-        <v>0</v>
-      </c>
-      <c r="CO13" s="29" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ7:CU7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP13" s="29">
-        <f>IF(_acsReport_day_each!CV7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ13" s="29">
-        <f>IF(_acsReport_day_each!CW7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR13" s="29">
-        <f>IF(_acsReport_day_each!CX7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS13" s="29">
-        <f>IF(_acsReport_day_each!CY7&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT13" s="76">
-        <f>IF(_acsReport_day_each!CZ7&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN13" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL7="","",_acsReport_day_each!CL7:CP7)</f>
+        <v/>
+      </c>
+      <c r="CO13" s="29" t="str">
+        <f>IF(_acsReport_day_each!CQ7="","",AVERAGE(_acsReport_day_each!CQ7:CU7))</f>
+        <v/>
+      </c>
+      <c r="CP13" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV7="","",IF(_acsReport_day_each!CV7&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ13" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW7="","",IF(_acsReport_day_each!CW7&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR13" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX7="","",IF(_acsReport_day_each!CX7&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS13" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY7="","",IF(_acsReport_day_each!CY7&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT13" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ7="","",IF(_acsReport_day_each!CZ7&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU13" s="29" t="str">
         <f>IF(_acsReport_day_each!CL7="","",_acsReport_day_each!CL7)</f>
@@ -6831,33 +6825,33 @@
         <f>IF(_acsReport_day_each!CK8="","",_acsReport_day_each!CK8)</f>
         <v/>
       </c>
-      <c r="CN14" s="61">
-        <f>_acsReport_day_each!CL8:CP8</f>
-        <v>0</v>
-      </c>
-      <c r="CO14" s="29" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ8:CU8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP14" s="29">
-        <f>IF(_acsReport_day_each!CV8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ14" s="29">
-        <f>IF(_acsReport_day_each!CW8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR14" s="29">
-        <f>IF(_acsReport_day_each!CX8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS14" s="29">
-        <f>IF(_acsReport_day_each!CY8&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT14" s="76">
-        <f>IF(_acsReport_day_each!CZ8&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN14" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL8="","",_acsReport_day_each!CL8:CP8)</f>
+        <v/>
+      </c>
+      <c r="CO14" s="29" t="str">
+        <f>IF(_acsReport_day_each!CQ8="","",AVERAGE(_acsReport_day_each!CQ8:CU8))</f>
+        <v/>
+      </c>
+      <c r="CP14" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV8="","",IF(_acsReport_day_each!CV8&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ14" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW8="","",IF(_acsReport_day_each!CW8&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR14" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX8="","",IF(_acsReport_day_each!CX8&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS14" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY8="","",IF(_acsReport_day_each!CY8&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT14" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ8="","",IF(_acsReport_day_each!CZ8&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU14" s="29" t="str">
         <f>IF(_acsReport_day_each!CL8="","",_acsReport_day_each!CL8)</f>
@@ -7260,33 +7254,33 @@
         <f>IF(_acsReport_day_each!CK9="","",_acsReport_day_each!CK9)</f>
         <v/>
       </c>
-      <c r="CN15" s="62">
-        <f>_acsReport_day_each!CL9:CP9</f>
-        <v>0</v>
-      </c>
-      <c r="CO15" s="63" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ9:CU9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP15" s="29">
-        <f>IF(_acsReport_day_each!CV9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ15" s="29">
-        <f>IF(_acsReport_day_each!CW9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR15" s="29">
-        <f>IF(_acsReport_day_each!CX9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS15" s="29">
-        <f>IF(_acsReport_day_each!CY9&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT15" s="76">
-        <f>IF(_acsReport_day_each!CZ9&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN15" s="62" t="str">
+        <f>IF(_acsReport_day_each!CL9="","",_acsReport_day_each!CL9:CP9)</f>
+        <v/>
+      </c>
+      <c r="CO15" s="63" t="str">
+        <f>IF(_acsReport_day_each!CQ9="","",AVERAGE(_acsReport_day_each!CQ9:CU9))</f>
+        <v/>
+      </c>
+      <c r="CP15" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV9="","",IF(_acsReport_day_each!CV9&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ15" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW9="","",IF(_acsReport_day_each!CW9&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR15" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX9="","",IF(_acsReport_day_each!CX9&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS15" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY9="","",IF(_acsReport_day_each!CY9&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT15" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ9="","",IF(_acsReport_day_each!CZ9&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU15" s="33" t="str">
         <f>IF(_acsReport_day_each!CL9="","",_acsReport_day_each!CL9)</f>
@@ -7689,33 +7683,33 @@
         <f>IF(_acsReport_day_each!CK10="","",_acsReport_day_each!CK10)</f>
         <v/>
       </c>
-      <c r="CN16" s="64">
-        <f>_acsReport_day_each!CL10:CP10</f>
-        <v>0</v>
-      </c>
-      <c r="CO16" s="65" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ10:CU10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP16" s="29">
-        <f>IF(_acsReport_day_each!CV10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ16" s="29">
-        <f>IF(_acsReport_day_each!CW10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR16" s="29">
-        <f>IF(_acsReport_day_each!CX10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS16" s="29">
-        <f>IF(_acsReport_day_each!CY10&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT16" s="76">
-        <f>IF(_acsReport_day_each!CZ10&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN16" s="64" t="str">
+        <f>IF(_acsReport_day_each!CL10="","",_acsReport_day_each!CL10:CP10)</f>
+        <v/>
+      </c>
+      <c r="CO16" s="65" t="str">
+        <f>IF(_acsReport_day_each!CQ10="","",AVERAGE(_acsReport_day_each!CQ10:CU10))</f>
+        <v/>
+      </c>
+      <c r="CP16" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV10="","",IF(_acsReport_day_each!CV10&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ16" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW10="","",IF(_acsReport_day_each!CW10&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR16" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX10="","",IF(_acsReport_day_each!CX10&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS16" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY10="","",IF(_acsReport_day_each!CY10&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT16" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ10="","",IF(_acsReport_day_each!CZ10&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU16" s="25" t="str">
         <f>IF(_acsReport_day_each!CL10="","",_acsReport_day_each!CL10)</f>
@@ -8118,33 +8112,33 @@
         <f>IF(_acsReport_day_each!CK11="","",_acsReport_day_each!CK11)</f>
         <v/>
       </c>
-      <c r="CN17" s="61">
-        <f>_acsReport_day_each!CL11:CP11</f>
-        <v>0</v>
-      </c>
-      <c r="CO17" s="66" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ11:CU11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP17" s="29">
-        <f>IF(_acsReport_day_each!CV11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ17" s="29">
-        <f>IF(_acsReport_day_each!CW11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR17" s="29">
-        <f>IF(_acsReport_day_each!CX11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS17" s="29">
-        <f>IF(_acsReport_day_each!CY11&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT17" s="76">
-        <f>IF(_acsReport_day_each!CZ11&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN17" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL11="","",_acsReport_day_each!CL11:CP11)</f>
+        <v/>
+      </c>
+      <c r="CO17" s="66" t="str">
+        <f>IF(_acsReport_day_each!CQ11="","",AVERAGE(_acsReport_day_each!CQ11:CU11))</f>
+        <v/>
+      </c>
+      <c r="CP17" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV11="","",IF(_acsReport_day_each!CV11&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ17" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW11="","",IF(_acsReport_day_each!CW11&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR17" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX11="","",IF(_acsReport_day_each!CX11&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS17" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY11="","",IF(_acsReport_day_each!CY11&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT17" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ11="","",IF(_acsReport_day_each!CZ11&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU17" s="29" t="str">
         <f>IF(_acsReport_day_each!CL11="","",_acsReport_day_each!CL11)</f>
@@ -8547,33 +8541,33 @@
         <f>IF(_acsReport_day_each!CK12="","",_acsReport_day_each!CK12)</f>
         <v/>
       </c>
-      <c r="CN18" s="61">
-        <f>_acsReport_day_each!CL12:CP12</f>
-        <v>0</v>
-      </c>
-      <c r="CO18" s="66" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ12:CU12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP18" s="29">
-        <f>IF(_acsReport_day_each!CV12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ18" s="29">
-        <f>IF(_acsReport_day_each!CW12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR18" s="29">
-        <f>IF(_acsReport_day_each!CX12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS18" s="29">
-        <f>IF(_acsReport_day_each!CY12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT18" s="76">
-        <f>IF(_acsReport_day_each!CZ12&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN18" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL12="","",_acsReport_day_each!CL12:CP12)</f>
+        <v/>
+      </c>
+      <c r="CO18" s="66" t="str">
+        <f>IF(_acsReport_day_each!CQ12="","",AVERAGE(_acsReport_day_each!CQ12:CU12))</f>
+        <v/>
+      </c>
+      <c r="CP18" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV12="","",IF(_acsReport_day_each!CV12&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ18" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW12="","",IF(_acsReport_day_each!CW12&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR18" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX12="","",IF(_acsReport_day_each!CX12&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS18" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY12="","",IF(_acsReport_day_each!CY12&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT18" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ12="","",IF(_acsReport_day_each!CZ12&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU18" s="29" t="str">
         <f>IF(_acsReport_day_each!CL12="","",_acsReport_day_each!CL12)</f>
@@ -8976,33 +8970,33 @@
         <f>IF(_acsReport_day_each!CK13="","",_acsReport_day_each!CK13)</f>
         <v/>
       </c>
-      <c r="CN19" s="61">
-        <f>_acsReport_day_each!CL13:CP13</f>
-        <v>0</v>
-      </c>
-      <c r="CO19" s="66" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ13:CU13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP19" s="29">
-        <f>IF(_acsReport_day_each!CV13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ19" s="29">
-        <f>IF(_acsReport_day_each!CW13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR19" s="29">
-        <f>IF(_acsReport_day_each!CX13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS19" s="29">
-        <f>IF(_acsReport_day_each!CY13&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT19" s="76">
-        <f>IF(_acsReport_day_each!CZ13&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN19" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL13="","",_acsReport_day_each!CL13:CP13)</f>
+        <v/>
+      </c>
+      <c r="CO19" s="66" t="str">
+        <f>IF(_acsReport_day_each!CQ13="","",AVERAGE(_acsReport_day_each!CQ13:CU13))</f>
+        <v/>
+      </c>
+      <c r="CP19" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV13="","",IF(_acsReport_day_each!CV13&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ19" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW13="","",IF(_acsReport_day_each!CW13&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR19" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX13="","",IF(_acsReport_day_each!CX13&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS19" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY13="","",IF(_acsReport_day_each!CY13&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT19" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ13="","",IF(_acsReport_day_each!CZ13&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU19" s="29" t="str">
         <f>IF(_acsReport_day_each!CL13="","",_acsReport_day_each!CL13)</f>
@@ -9405,33 +9399,33 @@
         <f>IF(_acsReport_day_each!CK14="","",_acsReport_day_each!CK14)</f>
         <v/>
       </c>
-      <c r="CN20" s="61">
-        <f>_acsReport_day_each!CL14:CP14</f>
-        <v>0</v>
-      </c>
-      <c r="CO20" s="66" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ14:CU14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP20" s="29">
-        <f>IF(_acsReport_day_each!CV14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ20" s="29">
-        <f>IF(_acsReport_day_each!CW14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR20" s="29">
-        <f>IF(_acsReport_day_each!CX14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS20" s="29">
-        <f>IF(_acsReport_day_each!CY14&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT20" s="76">
-        <f>IF(_acsReport_day_each!CZ14&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN20" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL14="","",_acsReport_day_each!CL14:CP14)</f>
+        <v/>
+      </c>
+      <c r="CO20" s="66" t="str">
+        <f>IF(_acsReport_day_each!CQ14="","",AVERAGE(_acsReport_day_each!CQ14:CU14))</f>
+        <v/>
+      </c>
+      <c r="CP20" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV14="","",IF(_acsReport_day_each!CV14&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ20" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW14="","",IF(_acsReport_day_each!CW14&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR20" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX14="","",IF(_acsReport_day_each!CX14&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS20" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY14="","",IF(_acsReport_day_each!CY14&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT20" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ14="","",IF(_acsReport_day_each!CZ14&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU20" s="29" t="str">
         <f>IF(_acsReport_day_each!CL14="","",_acsReport_day_each!CL14)</f>
@@ -9834,33 +9828,33 @@
         <f>IF(_acsReport_day_each!CK15="","",_acsReport_day_each!CK15)</f>
         <v/>
       </c>
-      <c r="CN21" s="61">
-        <f>_acsReport_day_each!CL15:CP15</f>
-        <v>0</v>
-      </c>
-      <c r="CO21" s="66" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ15:CU15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP21" s="29">
-        <f>IF(_acsReport_day_each!CV15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ21" s="29">
-        <f>IF(_acsReport_day_each!CW15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR21" s="29">
-        <f>IF(_acsReport_day_each!CX15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS21" s="29">
-        <f>IF(_acsReport_day_each!CY15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT21" s="76">
-        <f>IF(_acsReport_day_each!CZ15&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN21" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL15="","",_acsReport_day_each!CL15:CP15)</f>
+        <v/>
+      </c>
+      <c r="CO21" s="66" t="str">
+        <f>IF(_acsReport_day_each!CQ15="","",AVERAGE(_acsReport_day_each!CQ15:CU15))</f>
+        <v/>
+      </c>
+      <c r="CP21" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV15="","",IF(_acsReport_day_each!CV15&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ21" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW15="","",IF(_acsReport_day_each!CW15&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR21" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX15="","",IF(_acsReport_day_each!CX15&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS21" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY15="","",IF(_acsReport_day_each!CY15&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT21" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ15="","",IF(_acsReport_day_each!CZ15&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU21" s="29" t="str">
         <f>IF(_acsReport_day_each!CL15="","",_acsReport_day_each!CL15)</f>
@@ -10263,33 +10257,33 @@
         <f>IF(_acsReport_day_each!CK16="","",_acsReport_day_each!CK16)</f>
         <v/>
       </c>
-      <c r="CN22" s="61">
-        <f>_acsReport_day_each!CL16:CP16</f>
-        <v>0</v>
-      </c>
-      <c r="CO22" s="66" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ16:CU16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP22" s="29">
-        <f>IF(_acsReport_day_each!CV16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ22" s="29">
-        <f>IF(_acsReport_day_each!CW16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR22" s="29">
-        <f>IF(_acsReport_day_each!CX16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS22" s="29">
-        <f>IF(_acsReport_day_each!CY16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT22" s="76">
-        <f>IF(_acsReport_day_each!CZ16&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN22" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL16="","",_acsReport_day_each!CL16:CP16)</f>
+        <v/>
+      </c>
+      <c r="CO22" s="66" t="str">
+        <f>IF(_acsReport_day_each!CQ16="","",AVERAGE(_acsReport_day_each!CQ16:CU16))</f>
+        <v/>
+      </c>
+      <c r="CP22" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV16="","",IF(_acsReport_day_each!CV16&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ22" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW16="","",IF(_acsReport_day_each!CW16&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR22" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX16="","",IF(_acsReport_day_each!CX16&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS22" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY16="","",IF(_acsReport_day_each!CY16&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT22" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ16="","",IF(_acsReport_day_each!CZ16&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU22" s="29" t="str">
         <f>IF(_acsReport_day_each!CL16="","",_acsReport_day_each!CL16)</f>
@@ -10692,33 +10686,33 @@
         <f>IF(_acsReport_day_each!CK17="","",_acsReport_day_each!CK17)</f>
         <v/>
       </c>
-      <c r="CN23" s="67">
-        <f>_acsReport_day_each!CL17:CP17</f>
-        <v>0</v>
-      </c>
-      <c r="CO23" s="66" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ17:CU17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP23" s="29">
-        <f>IF(_acsReport_day_each!CV17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ23" s="29">
-        <f>IF(_acsReport_day_each!CW17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR23" s="29">
-        <f>IF(_acsReport_day_each!CX17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS23" s="29">
-        <f>IF(_acsReport_day_each!CY17&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT23" s="76">
-        <f>IF(_acsReport_day_each!CZ17&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN23" s="67" t="str">
+        <f>IF(_acsReport_day_each!CL17="","",_acsReport_day_each!CL17:CP17)</f>
+        <v/>
+      </c>
+      <c r="CO23" s="66" t="str">
+        <f>IF(_acsReport_day_each!CQ17="","",AVERAGE(_acsReport_day_each!CQ17:CU17))</f>
+        <v/>
+      </c>
+      <c r="CP23" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV17="","",IF(_acsReport_day_each!CV17&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ23" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW17="","",IF(_acsReport_day_each!CW17&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR23" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX17="","",IF(_acsReport_day_each!CX17&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS23" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY17="","",IF(_acsReport_day_each!CY17&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT23" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ17="","",IF(_acsReport_day_each!CZ17&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU23" s="33" t="str">
         <f>IF(_acsReport_day_each!CL17="","",_acsReport_day_each!CL17)</f>
@@ -11121,33 +11115,33 @@
         <f>IF(_acsReport_day_each!CK18="","",_acsReport_day_each!CK18)</f>
         <v/>
       </c>
-      <c r="CN24" s="68">
-        <f>_acsReport_day_each!CL18:CP18</f>
-        <v>0</v>
-      </c>
-      <c r="CO24" s="69" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ18:CU18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP24" s="29">
-        <f>IF(_acsReport_day_each!CV18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ24" s="29">
-        <f>IF(_acsReport_day_each!CW18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR24" s="29">
-        <f>IF(_acsReport_day_each!CX18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS24" s="29">
-        <f>IF(_acsReport_day_each!CY18&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT24" s="76">
-        <f>IF(_acsReport_day_each!CZ18&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN24" s="68" t="str">
+        <f>IF(_acsReport_day_each!CL18="","",_acsReport_day_each!CL18:CP18)</f>
+        <v/>
+      </c>
+      <c r="CO24" s="69" t="str">
+        <f>IF(_acsReport_day_each!CQ18="","",AVERAGE(_acsReport_day_each!CQ18:CU18))</f>
+        <v/>
+      </c>
+      <c r="CP24" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV18="","",IF(_acsReport_day_each!CV18&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ24" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW18="","",IF(_acsReport_day_each!CW18&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR24" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX18="","",IF(_acsReport_day_each!CX18&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS24" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY18="","",IF(_acsReport_day_each!CY18&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT24" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ18="","",IF(_acsReport_day_each!CZ18&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU24" s="25" t="str">
         <f>IF(_acsReport_day_each!CL18="","",_acsReport_day_each!CL18)</f>
@@ -11550,33 +11544,33 @@
         <f>IF(_acsReport_day_each!CK19="","",_acsReport_day_each!CK19)</f>
         <v/>
       </c>
-      <c r="CN25" s="61">
-        <f>_acsReport_day_each!CL19:CP19</f>
-        <v>0</v>
-      </c>
-      <c r="CO25" s="69" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ19:CU19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP25" s="29">
-        <f>IF(_acsReport_day_each!CV19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ25" s="29">
-        <f>IF(_acsReport_day_each!CW19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR25" s="29">
-        <f>IF(_acsReport_day_each!CX19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS25" s="29">
-        <f>IF(_acsReport_day_each!CY19&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT25" s="76">
-        <f>IF(_acsReport_day_each!CZ19&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN25" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL19="","",_acsReport_day_each!CL19:CP19)</f>
+        <v/>
+      </c>
+      <c r="CO25" s="69" t="str">
+        <f>IF(_acsReport_day_each!CQ19="","",AVERAGE(_acsReport_day_each!CQ19:CU19))</f>
+        <v/>
+      </c>
+      <c r="CP25" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV19="","",IF(_acsReport_day_each!CV19&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ25" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW19="","",IF(_acsReport_day_each!CW19&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR25" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX19="","",IF(_acsReport_day_each!CX19&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS25" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY19="","",IF(_acsReport_day_each!CY19&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT25" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ19="","",IF(_acsReport_day_each!CZ19&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU25" s="29" t="str">
         <f>IF(_acsReport_day_each!CL19="","",_acsReport_day_each!CL19)</f>
@@ -11979,33 +11973,33 @@
         <f>IF(_acsReport_day_each!CK20="","",_acsReport_day_each!CK20)</f>
         <v/>
       </c>
-      <c r="CN26" s="61">
-        <f>_acsReport_day_each!CL20:CP20</f>
-        <v>0</v>
-      </c>
-      <c r="CO26" s="69" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ20:CU20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP26" s="29">
-        <f>IF(_acsReport_day_each!CV20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ26" s="29">
-        <f>IF(_acsReport_day_each!CW20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR26" s="29">
-        <f>IF(_acsReport_day_each!CX20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS26" s="29">
-        <f>IF(_acsReport_day_each!CY20&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT26" s="76">
-        <f>IF(_acsReport_day_each!CZ20&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN26" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL20="","",_acsReport_day_each!CL20:CP20)</f>
+        <v/>
+      </c>
+      <c r="CO26" s="69" t="str">
+        <f>IF(_acsReport_day_each!CQ20="","",AVERAGE(_acsReport_day_each!CQ20:CU20))</f>
+        <v/>
+      </c>
+      <c r="CP26" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV20="","",IF(_acsReport_day_each!CV20&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ26" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW20="","",IF(_acsReport_day_each!CW20&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR26" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX20="","",IF(_acsReport_day_each!CX20&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS26" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY20="","",IF(_acsReport_day_each!CY20&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT26" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ20="","",IF(_acsReport_day_each!CZ20&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU26" s="29" t="str">
         <f>IF(_acsReport_day_each!CL20="","",_acsReport_day_each!CL20)</f>
@@ -12408,33 +12402,33 @@
         <f>IF(_acsReport_day_each!CK21="","",_acsReport_day_each!CK21)</f>
         <v/>
       </c>
-      <c r="CN27" s="61">
-        <f>_acsReport_day_each!CL21:CP21</f>
-        <v>0</v>
-      </c>
-      <c r="CO27" s="69" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ21:CU21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP27" s="29">
-        <f>IF(_acsReport_day_each!CV21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ27" s="29">
-        <f>IF(_acsReport_day_each!CW21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR27" s="29">
-        <f>IF(_acsReport_day_each!CX21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS27" s="29">
-        <f>IF(_acsReport_day_each!CY21&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT27" s="76">
-        <f>IF(_acsReport_day_each!CZ21&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN27" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL21="","",_acsReport_day_each!CL21:CP21)</f>
+        <v/>
+      </c>
+      <c r="CO27" s="69" t="str">
+        <f>IF(_acsReport_day_each!CQ21="","",AVERAGE(_acsReport_day_each!CQ21:CU21))</f>
+        <v/>
+      </c>
+      <c r="CP27" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV21="","",IF(_acsReport_day_each!CV21&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ27" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW21="","",IF(_acsReport_day_each!CW21&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR27" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX21="","",IF(_acsReport_day_each!CX21&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS27" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY21="","",IF(_acsReport_day_each!CY21&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT27" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ21="","",IF(_acsReport_day_each!CZ21&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU27" s="29" t="str">
         <f>IF(_acsReport_day_each!CL21="","",_acsReport_day_each!CL21)</f>
@@ -12837,33 +12831,33 @@
         <f>IF(_acsReport_day_each!CK22="","",_acsReport_day_each!CK22)</f>
         <v/>
       </c>
-      <c r="CN28" s="61">
-        <f>_acsReport_day_each!CL22:CP22</f>
-        <v>0</v>
-      </c>
-      <c r="CO28" s="69" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ22:CU22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP28" s="29">
-        <f>IF(_acsReport_day_each!CV22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ28" s="29">
-        <f>IF(_acsReport_day_each!CW22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR28" s="29">
-        <f>IF(_acsReport_day_each!CX22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS28" s="29">
-        <f>IF(_acsReport_day_each!CY22&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT28" s="76">
-        <f>IF(_acsReport_day_each!CZ22&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN28" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL22="","",_acsReport_day_each!CL22:CP22)</f>
+        <v/>
+      </c>
+      <c r="CO28" s="69" t="str">
+        <f>IF(_acsReport_day_each!CQ22="","",AVERAGE(_acsReport_day_each!CQ22:CU22))</f>
+        <v/>
+      </c>
+      <c r="CP28" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV22="","",IF(_acsReport_day_each!CV22&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ28" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW22="","",IF(_acsReport_day_each!CW22&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR28" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX22="","",IF(_acsReport_day_each!CX22&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS28" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY22="","",IF(_acsReport_day_each!CY22&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT28" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ22="","",IF(_acsReport_day_each!CZ22&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU28" s="29" t="str">
         <f>IF(_acsReport_day_each!CL22="","",_acsReport_day_each!CL22)</f>
@@ -13266,33 +13260,33 @@
         <f>IF(_acsReport_day_each!CK23="","",_acsReport_day_each!CK23)</f>
         <v/>
       </c>
-      <c r="CN29" s="61">
-        <f>_acsReport_day_each!CL23:CP23</f>
-        <v>0</v>
-      </c>
-      <c r="CO29" s="69" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ23:CU23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP29" s="29">
-        <f>IF(_acsReport_day_each!CV23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ29" s="29">
-        <f>IF(_acsReport_day_each!CW23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR29" s="29">
-        <f>IF(_acsReport_day_each!CX23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS29" s="29">
-        <f>IF(_acsReport_day_each!CY23&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT29" s="76">
-        <f>IF(_acsReport_day_each!CZ23&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN29" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL23="","",_acsReport_day_each!CL23:CP23)</f>
+        <v/>
+      </c>
+      <c r="CO29" s="69" t="str">
+        <f>IF(_acsReport_day_each!CQ23="","",AVERAGE(_acsReport_day_each!CQ23:CU23))</f>
+        <v/>
+      </c>
+      <c r="CP29" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV23="","",IF(_acsReport_day_each!CV23&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ29" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW23="","",IF(_acsReport_day_each!CW23&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR29" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX23="","",IF(_acsReport_day_each!CX23&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS29" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY23="","",IF(_acsReport_day_each!CY23&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT29" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ23="","",IF(_acsReport_day_each!CZ23&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU29" s="29" t="str">
         <f>IF(_acsReport_day_each!CL23="","",_acsReport_day_each!CL23)</f>
@@ -13695,33 +13689,33 @@
         <f>IF(_acsReport_day_each!CK24="","",_acsReport_day_each!CK24)</f>
         <v/>
       </c>
-      <c r="CN30" s="61">
-        <f>_acsReport_day_each!CL24:CP24</f>
-        <v>0</v>
-      </c>
-      <c r="CO30" s="69" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ24:CU24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP30" s="29">
-        <f>IF(_acsReport_day_each!CV24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ30" s="29">
-        <f>IF(_acsReport_day_each!CW24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR30" s="29">
-        <f>IF(_acsReport_day_each!CX24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS30" s="29">
-        <f>IF(_acsReport_day_each!CY24&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT30" s="76">
-        <f>IF(_acsReport_day_each!CZ24&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN30" s="61" t="str">
+        <f>IF(_acsReport_day_each!CL24="","",_acsReport_day_each!CL24:CP24)</f>
+        <v/>
+      </c>
+      <c r="CO30" s="69" t="str">
+        <f>IF(_acsReport_day_each!CQ24="","",AVERAGE(_acsReport_day_each!CQ24:CU24))</f>
+        <v/>
+      </c>
+      <c r="CP30" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV24="","",IF(_acsReport_day_each!CV24&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ30" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW24="","",IF(_acsReport_day_each!CW24&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR30" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX24="","",IF(_acsReport_day_each!CX24&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS30" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY24="","",IF(_acsReport_day_each!CY24&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT30" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ24="","",IF(_acsReport_day_each!CZ24&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU30" s="29" t="str">
         <f>IF(_acsReport_day_each!CL24="","",_acsReport_day_each!CL24)</f>
@@ -14124,33 +14118,33 @@
         <f>IF(_acsReport_day_each!CK25="","",_acsReport_day_each!CK25)</f>
         <v/>
       </c>
-      <c r="CN31" s="62">
-        <f>_acsReport_day_each!CL25:CP25</f>
-        <v>0</v>
-      </c>
-      <c r="CO31" s="63" t="e">
-        <f>AVERAGE(_acsReport_day_each!CQ25:CU25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP31" s="29">
-        <f>IF(_acsReport_day_each!CV25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ31" s="29">
-        <f>IF(_acsReport_day_each!CW25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CR31" s="29">
-        <f>IF(_acsReport_day_each!CX25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CS31" s="29">
-        <f>IF(_acsReport_day_each!CY25&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CT31" s="76">
-        <f>IF(_acsReport_day_each!CZ25&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="CN31" s="62" t="str">
+        <f>IF(_acsReport_day_each!CL25="","",_acsReport_day_each!CL25:CP25)</f>
+        <v/>
+      </c>
+      <c r="CO31" s="63" t="str">
+        <f>IF(_acsReport_day_each!CQ25="","",AVERAGE(_acsReport_day_each!CQ25:CU25))</f>
+        <v/>
+      </c>
+      <c r="CP31" s="29" t="str">
+        <f>IF(_acsReport_day_each!CV25="","",IF(_acsReport_day_each!CV25&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CQ31" s="29" t="str">
+        <f>IF(_acsReport_day_each!CW25="","",IF(_acsReport_day_each!CW25&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CR31" s="29" t="str">
+        <f>IF(_acsReport_day_each!CX25="","",IF(_acsReport_day_each!CX25&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CS31" s="29" t="str">
+        <f>IF(_acsReport_day_each!CY25="","",IF(_acsReport_day_each!CY25&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CT31" s="76" t="str">
+        <f>IF(_acsReport_day_each!CZ25="","",IF(_acsReport_day_each!CZ25&gt;0,1,0))</f>
+        <v/>
       </c>
       <c r="CU31" s="33" t="str">
         <f>IF(_acsReport_day_each!CL25="","",_acsReport_day_each!CL25)</f>

--- a/excel/finished/能介/四空压站运行记录表.xlsx
+++ b/excel/finished/能介/四空压站运行记录表.xlsx
@@ -935,13 +935,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1042,19 +1041,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1065,33 +1055,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1109,24 +1076,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,15 +1108,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,14 +1147,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,7 +1212,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,13 +1320,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,133 +1380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,19 +1392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,39 +1840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1913,6 +1879,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1924,6 +1914,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1944,10 +1943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1956,40 +1955,40 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1998,113 +1997,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2153,7 +2152,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -2193,49 +2192,49 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="14" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="15" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="16" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="19" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="19" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2285,34 +2284,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="21" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="22" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="23" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="23" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="24" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="24" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="25" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="26" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="26" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="27" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="27" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="29" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="29" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2331,7 +2330,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2391,13 +2390,13 @@
     <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="常规 14" xfId="55"/>
-    <cellStyle name="常规 3 2 4" xfId="56"/>
+    <cellStyle name="常规 3 2 4" xfId="55"/>
+    <cellStyle name="常规 14" xfId="56"/>
     <cellStyle name="常规 2" xfId="57"/>
     <cellStyle name="常规 3" xfId="58"/>
     <cellStyle name="常规 3 2 3" xfId="59"/>
-    <cellStyle name="常规 3 3 2" xfId="60"/>
-    <cellStyle name="常规 3 5" xfId="61"/>
+    <cellStyle name="常规 3 5" xfId="60"/>
+    <cellStyle name="常规 3 3 2" xfId="61"/>
     <cellStyle name="常规 3 6" xfId="62"/>
     <cellStyle name="常规 4" xfId="63"/>
     <cellStyle name="常规 5" xfId="64"/>
@@ -2702,8 +2701,8 @@
   <sheetPr/>
   <dimension ref="A1:DD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD2" workbookViewId="0">
-      <selection activeCell="CN4" sqref="CN$1:CT$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:DD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26666666666667" defaultRowHeight="13.5"/>
